--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>531449.1532265212</v>
+        <v>526395.4785118994</v>
       </c>
     </row>
     <row r="7">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>150.6136858485314</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>65.78393125684445</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7712654402038</v>
+        <v>30.15566678099832</v>
       </c>
       <c r="H12" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>153.1173860389223</v>
       </c>
       <c r="U12" t="n">
-        <v>61.74277537063397</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>61.49106784031279</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>22.73533982621854</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>230.0423550269635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>2.701627844419818</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>230.3008286372401</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1697,13 +1697,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>52.45700824276043</v>
+        <v>103.8674471566523</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.1173860389223</v>
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>229.3218763496012</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.40526381436649</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>230.0423550269635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>364.1217632830857</v>
       </c>
     </row>
     <row r="18">
@@ -1931,16 +1931,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>112.8015559274654</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099859</v>
       </c>
       <c r="T18" t="n">
         <v>153.1173860389223</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>124.1211875716276</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>42.3532781462131</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>195.6393360809583</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.9678406891524</v>
       </c>
       <c r="U20" t="n">
         <v>254.3180969423526</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>30.15566678099814</v>
       </c>
       <c r="T21" t="n">
         <v>153.1173860389223</v>
@@ -2222,7 +2222,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>185.4121787782596</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>159.3314440121567</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0375990857039</v>
+        <v>107.0647609521967</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>332.5609387790133</v>
       </c>
       <c r="H23" t="n">
-        <v>74.09014774264085</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>107.8702810193205</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>19.55844721682702</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U24" t="n">
         <v>195.3017141927292</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>197.3033607623961</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2481,19 +2481,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>227.6806797058846</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>273.5653860290307</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3180969423526</v>
+        <v>80.7596009738197</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.0654288112599</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2699,7 +2699,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>41.00378322040025</v>
+        <v>41.00378322040071</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2715,7 +2715,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>95.79056339398903</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>43.40960058039384</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U28" t="n">
         <v>279.9176257340516</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>236.9174514197929</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>111.8053477561216</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>29.25542836169115</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T30" t="n">
-        <v>19.55844721682702</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U30" t="n">
         <v>195.3017141927292</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>107.0647609521972</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9176257340516</v>
+        <v>21.08411116567423</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>74.09014774264085</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T32" t="n">
         <v>210.5842916762861</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>384.847044317194</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099859</v>
       </c>
       <c r="T33" t="n">
-        <v>108.5522297017642</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U33" t="n">
         <v>195.3017141927292</v>
@@ -3173,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3204,10 +3204,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5473206610679</v>
+        <v>121.8661308974759</v>
       </c>
       <c r="I34" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>22.73533982621854</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4936277569416</v>
+        <v>104.956738785993</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T35" t="n">
-        <v>179.238518762979</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3398,16 +3398,16 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T36" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3017141927292</v>
+        <v>129.2912218519975</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>203.5473699382769</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>43.40960058039398</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U37" t="n">
-        <v>113.947273932685</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>131.7937724485621</v>
       </c>
       <c r="Y38" t="n">
-        <v>104.1663823439335</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>52.45700824276043</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>79.08260763742894</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.1173860389223</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3672,13 +3672,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>167.7412420701844</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.48860753423</v>
+        <v>33.35598905976617</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>106.2012935841285</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>65.87955434482596</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,16 +3827,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>8.03029048726123</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T42" t="n">
-        <v>153.1173860389223</v>
+        <v>97.70411326236163</v>
       </c>
       <c r="U42" t="n">
         <v>195.3017141927292</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T43" t="n">
         <v>233.0375990857039</v>
@@ -3957,13 +3957,13 @@
         <v>279.9176257340516</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>156.7037537960933</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>162.0727348073161</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>30.39796451659976</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T44" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>327.0934855541141</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4067,10 +4067,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>52.45700824276022</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>153.1173860389223</v>
+        <v>78.50178737971682</v>
       </c>
       <c r="U45" t="n">
         <v>195.3017141927292</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5473206610679</v>
+        <v>36.48258179647187</v>
       </c>
       <c r="I46" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U46" t="n">
-        <v>23.52611110995775</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.03508875139925</v>
+        <v>1314.964238645342</v>
       </c>
       <c r="C11" t="n">
-        <v>36.03508875139925</v>
+        <v>1314.964238645342</v>
       </c>
       <c r="D11" t="n">
-        <v>36.03508875139925</v>
+        <v>1162.829202434705</v>
       </c>
       <c r="E11" t="n">
-        <v>36.03508875139925</v>
+        <v>748.4889869516014</v>
       </c>
       <c r="F11" t="n">
-        <v>36.03508875139925</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="G11" t="n">
-        <v>36.03508875139925</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H11" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I11" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J11" t="n">
         <v>143.8778192802977</v>
       </c>
       <c r="K11" t="n">
-        <v>326.05521688877</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L11" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M11" t="n">
         <v>847.9396778919402</v>
@@ -5068,25 +5068,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.900911697253</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T11" t="n">
-        <v>1503.18950596363</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U11" t="n">
-        <v>1246.302539355193</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="V11" t="n">
-        <v>896.4649846916741</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="W11" t="n">
-        <v>512.7046838268427</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="X11" t="n">
-        <v>446.2562684158887</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="Y11" t="n">
-        <v>446.2562684158887</v>
+        <v>1314.964238645342</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681.7483020962025</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7532308451481</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D12" t="n">
-        <v>430.8560730645405</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E12" t="n">
-        <v>310.3632570568685</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="F12" t="n">
-        <v>201.4033772393731</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="G12" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H12" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I12" t="n">
-        <v>54.86182750109194</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J12" t="n">
-        <v>172.4499501741702</v>
+        <v>92.6442522401635</v>
       </c>
       <c r="K12" t="n">
-        <v>300.8567311649632</v>
+        <v>221.0510332309565</v>
       </c>
       <c r="L12" t="n">
-        <v>492.2761237559261</v>
+        <v>412.4704258219193</v>
       </c>
       <c r="M12" t="n">
-        <v>723.4930578498861</v>
+        <v>643.6873599158794</v>
       </c>
       <c r="N12" t="n">
-        <v>966.6651173727308</v>
+        <v>886.8594194387241</v>
       </c>
       <c r="O12" t="n">
-        <v>1180.121027262669</v>
+        <v>1100.315329328662</v>
       </c>
       <c r="P12" t="n">
-        <v>1343.608321726251</v>
+        <v>1263.802623792245</v>
       </c>
       <c r="Q12" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R12" t="n">
         <v>1801.754437569962</v>
@@ -5150,22 +5150,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T12" t="n">
-        <v>1647.090411268021</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U12" t="n">
-        <v>1584.723971499704</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V12" t="n">
-        <v>1371.012444492737</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.779276229066</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X12" t="n">
-        <v>981.4532943679591</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0513347317891</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1086.48561947764</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="C13" t="n">
-        <v>915.3922470393566</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="D13" t="n">
-        <v>755.8976023622665</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="E13" t="n">
-        <v>594.9867872305859</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="F13" t="n">
-        <v>430.3556613411772</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G13" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H13" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I13" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J13" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K13" t="n">
-        <v>317.8801229324888</v>
+        <v>176.6012929781111</v>
       </c>
       <c r="L13" t="n">
-        <v>719.5523464932869</v>
+        <v>578.2735165389092</v>
       </c>
       <c r="M13" t="n">
-        <v>1158.298392094215</v>
+        <v>672.0532126255522</v>
       </c>
       <c r="N13" t="n">
-        <v>1253.030514607754</v>
+        <v>941.0168634017895</v>
       </c>
       <c r="O13" t="n">
         <v>1335.365269788488</v>
       </c>
       <c r="P13" t="n">
-        <v>1656.374954878931</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q13" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R13" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S13" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T13" t="n">
-        <v>1760.229876346689</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U13" t="n">
-        <v>1760.229876346689</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="V13" t="n">
-        <v>1760.229876346689</v>
+        <v>840.2965037317665</v>
       </c>
       <c r="W13" t="n">
-        <v>1737.264886623236</v>
+        <v>561.2268392406409</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.92102448292</v>
+        <v>322.8829771003242</v>
       </c>
       <c r="Y13" t="n">
-        <v>1274.185325871684</v>
+        <v>98.14727848908893</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1801.754437569962</v>
+        <v>869.9190084990071</v>
       </c>
       <c r="C14" t="n">
-        <v>1801.754437569962</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="D14" t="n">
-        <v>1569.388422391211</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="E14" t="n">
-        <v>1155.048206908108</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="F14" t="n">
-        <v>734.0177948617957</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G14" t="n">
-        <v>327.4585749052889</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H14" t="n">
         <v>38.76400576596473</v>
@@ -5278,19 +5278,19 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J14" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K14" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L14" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M14" t="n">
-        <v>847.9396778919407</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N14" t="n">
-        <v>1135.286121478371</v>
+        <v>1135.28612147837</v>
       </c>
       <c r="O14" t="n">
         <v>1401.21843916599</v>
@@ -5299,31 +5299,31 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q14" t="n">
-        <v>1754.652407274059</v>
+        <v>1754.652407274058</v>
       </c>
       <c r="R14" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S14" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T14" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U14" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="V14" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="W14" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="X14" t="n">
-        <v>1801.754437569962</v>
+        <v>1102.546108132583</v>
       </c>
       <c r="Y14" t="n">
-        <v>1801.754437569962</v>
+        <v>869.9190084990071</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460.4070108036225</v>
+        <v>546.8402830839849</v>
       </c>
       <c r="C15" t="n">
-        <v>326.4119395525682</v>
+        <v>546.8402830839849</v>
       </c>
       <c r="D15" t="n">
-        <v>209.5147817719606</v>
+        <v>429.9431253033773</v>
       </c>
       <c r="E15" t="n">
-        <v>89.02196576428858</v>
+        <v>309.4503092957053</v>
       </c>
       <c r="F15" t="n">
-        <v>89.02196576428858</v>
+        <v>200.4904294782099</v>
       </c>
       <c r="G15" t="n">
-        <v>36.03508875139925</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H15" t="n">
         <v>36.03508875139925</v>
@@ -5357,25 +5357,25 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K15" t="n">
-        <v>239.8777719806492</v>
+        <v>569.7515857563246</v>
       </c>
       <c r="L15" t="n">
-        <v>431.297164571612</v>
+        <v>761.1709783472875</v>
       </c>
       <c r="M15" t="n">
-        <v>662.5140986655721</v>
+        <v>992.3879124412475</v>
       </c>
       <c r="N15" t="n">
-        <v>905.6861581884168</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O15" t="n">
-        <v>1119.142068078354</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P15" t="n">
-        <v>1282.629362541937</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q15" t="n">
         <v>1701.572828547836</v>
@@ -5384,25 +5384,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.382680207124</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.671153200158</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W15" t="n">
-        <v>936.4379849364863</v>
+        <v>1022.871257216849</v>
       </c>
       <c r="X15" t="n">
-        <v>760.1120030753791</v>
+        <v>846.5452753557415</v>
       </c>
       <c r="Y15" t="n">
-        <v>600.7100434392091</v>
+        <v>687.1433157195715</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1086.48561947764</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="C16" t="n">
-        <v>915.3922470393566</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="D16" t="n">
-        <v>755.8976023622665</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="E16" t="n">
-        <v>594.9867872305859</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F16" t="n">
-        <v>430.3556613411772</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G16" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H16" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I16" t="n">
         <v>36.03508875139925</v>
@@ -5439,49 +5439,49 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K16" t="n">
-        <v>279.6960032663426</v>
+        <v>176.6012929781111</v>
       </c>
       <c r="L16" t="n">
-        <v>681.3682268271408</v>
+        <v>264.2944053038862</v>
       </c>
       <c r="M16" t="n">
-        <v>775.1479229137838</v>
+        <v>640.5243996465026</v>
       </c>
       <c r="N16" t="n">
-        <v>1201.914346874908</v>
+        <v>1067.290823607627</v>
       </c>
       <c r="O16" t="n">
-        <v>1596.262753261606</v>
+        <v>1461.639229994325</v>
       </c>
       <c r="P16" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q16" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R16" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.794278295998</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T16" t="n">
-        <v>1355.402764068014</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.402764068014</v>
+        <v>1400.68058058028</v>
       </c>
       <c r="V16" t="n">
-        <v>1355.402764068014</v>
+        <v>1126.794835519802</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.402764068014</v>
+        <v>847.7251710286762</v>
       </c>
       <c r="X16" t="n">
-        <v>1355.402764068014</v>
+        <v>609.3813088883595</v>
       </c>
       <c r="Y16" t="n">
-        <v>1274.185325871684</v>
+        <v>384.6456102771242</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1801.754437569962</v>
+        <v>871.405716280815</v>
       </c>
       <c r="C17" t="n">
-        <v>1801.754437569962</v>
+        <v>871.405716280815</v>
       </c>
       <c r="D17" t="n">
-        <v>1569.388422391211</v>
+        <v>871.405716280815</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.048206908108</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="F17" t="n">
-        <v>734.0177948617957</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G17" t="n">
-        <v>327.4585749052889</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H17" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I17" t="n">
         <v>36.03508875139925</v>
@@ -5521,7 +5521,7 @@
         <v>326.0552168887698</v>
       </c>
       <c r="L17" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M17" t="n">
         <v>847.9396778919402</v>
@@ -5545,22 +5545,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T17" t="n">
-        <v>1801.754437569962</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U17" t="n">
-        <v>1801.754437569962</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="V17" t="n">
-        <v>1801.754437569962</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="W17" t="n">
-        <v>1801.754437569962</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="X17" t="n">
-        <v>1801.754437569962</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="Y17" t="n">
-        <v>1801.754437569962</v>
+        <v>871.405716280815</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460.4070108036225</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C18" t="n">
-        <v>326.4119395525682</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D18" t="n">
-        <v>209.5147817719606</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E18" t="n">
-        <v>95.57381618866216</v>
+        <v>144.9949685688947</v>
       </c>
       <c r="F18" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G18" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H18" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I18" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J18" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0510332309565</v>
+        <v>569.7515857563246</v>
       </c>
       <c r="L18" t="n">
-        <v>412.4704258219193</v>
+        <v>761.1709783472875</v>
       </c>
       <c r="M18" t="n">
-        <v>643.6873599158794</v>
+        <v>992.3879124412475</v>
       </c>
       <c r="N18" t="n">
-        <v>886.8594194387241</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O18" t="n">
-        <v>1100.315329328662</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P18" t="n">
-        <v>1263.802623792245</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q18" t="n">
         <v>1701.572828547836</v>
@@ -5621,25 +5621,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S18" t="n">
-        <v>1715.3211652896</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T18" t="n">
-        <v>1560.657138987658</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U18" t="n">
-        <v>1363.382680207124</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V18" t="n">
-        <v>1149.671153200158</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W18" t="n">
-        <v>936.4379849364863</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X18" t="n">
-        <v>760.1120030753791</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y18" t="n">
-        <v>600.7100434392091</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.0323953884142</v>
+        <v>492.3185751510163</v>
       </c>
       <c r="C19" t="n">
-        <v>650.9390229501307</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="D19" t="n">
-        <v>491.4443782730407</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="E19" t="n">
-        <v>330.5335631413602</v>
+        <v>366.9436382099783</v>
       </c>
       <c r="F19" t="n">
-        <v>165.9024372519515</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G19" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H19" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I19" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J19" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K19" t="n">
-        <v>111.5999293467747</v>
+        <v>176.6012929781111</v>
       </c>
       <c r="L19" t="n">
-        <v>513.2721529075728</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M19" t="n">
-        <v>640.5243996465026</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N19" t="n">
-        <v>1067.290823607627</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O19" t="n">
-        <v>1461.639229994325</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P19" t="n">
         <v>1782.648915084768</v>
@@ -5712,13 +5712,13 @@
         <v>1009.732101782459</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.732101782459</v>
+        <v>730.6624372913329</v>
       </c>
       <c r="X19" t="n">
-        <v>1009.732101782459</v>
+        <v>492.3185751510163</v>
       </c>
       <c r="Y19" t="n">
-        <v>1009.732101782459</v>
+        <v>492.3185751510163</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1459.013945088816</v>
+        <v>853.3525263596341</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.013945088816</v>
+        <v>443.2279356729042</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.550015181876</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="E20" t="n">
-        <v>640.2097996987729</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="F20" t="n">
-        <v>640.2097996987729</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="G20" t="n">
-        <v>233.6505797422662</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H20" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I20" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J20" t="n">
         <v>143.8778192802977</v>
       </c>
       <c r="K20" t="n">
-        <v>326.05521688877</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M20" t="n">
-        <v>847.9396778919406</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N20" t="n">
-        <v>1135.286121478371</v>
+        <v>1135.28612147837</v>
       </c>
       <c r="O20" t="n">
         <v>1401.21843916599</v>
@@ -5779,25 +5779,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.900911697253</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T20" t="n">
-        <v>1715.900911697253</v>
+        <v>1510.882890799119</v>
       </c>
       <c r="U20" t="n">
-        <v>1459.013945088816</v>
+        <v>1253.995924190682</v>
       </c>
       <c r="V20" t="n">
-        <v>1459.013945088816</v>
+        <v>1253.995924190682</v>
       </c>
       <c r="W20" t="n">
-        <v>1459.013945088816</v>
+        <v>1253.995924190682</v>
       </c>
       <c r="X20" t="n">
-        <v>1459.013945088816</v>
+        <v>853.3525263596341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1459.013945088816</v>
+        <v>853.3525263596341</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>572.788422278707</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C21" t="n">
-        <v>438.7933510276526</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D21" t="n">
-        <v>321.8961932470451</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E21" t="n">
-        <v>201.4033772393731</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F21" t="n">
-        <v>201.4033772393731</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G21" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H21" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I21" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J21" t="n">
-        <v>355.1393949644895</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K21" t="n">
-        <v>483.5461759552825</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L21" t="n">
         <v>674.9655685462453</v>
@@ -5852,31 +5852,31 @@
         <v>1526.29776651657</v>
       </c>
       <c r="Q21" t="n">
-        <v>1701.572828547836</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R21" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S21" t="n">
-        <v>1801.754437569962</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T21" t="n">
-        <v>1647.090411268021</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U21" t="n">
-        <v>1449.815952487486</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V21" t="n">
-        <v>1236.10442548052</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W21" t="n">
-        <v>1048.819396411571</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X21" t="n">
-        <v>872.4934145504636</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y21" t="n">
-        <v>713.0914549142936</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1076.333099576889</v>
+        <v>207.1284611896828</v>
       </c>
       <c r="C22" t="n">
-        <v>915.3922470393566</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="D22" t="n">
-        <v>755.8976023622665</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="E22" t="n">
-        <v>594.9867872305859</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F22" t="n">
-        <v>430.3556613411772</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G22" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H22" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I22" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J22" t="n">
         <v>117.5375436081382</v>
@@ -5919,43 +5919,43 @@
         <v>784.5537101246234</v>
       </c>
       <c r="M22" t="n">
-        <v>878.3334062112664</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N22" t="n">
-        <v>973.0655287248051</v>
+        <v>1318.031878239091</v>
       </c>
       <c r="O22" t="n">
-        <v>1335.365269788488</v>
+        <v>1461.639229994325</v>
       </c>
       <c r="P22" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q22" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R22" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S22" t="n">
-        <v>1590.794278295998</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T22" t="n">
-        <v>1355.402764068014</v>
+        <v>1693.608214385925</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.402764068014</v>
+        <v>1410.863137886883</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.402764068014</v>
+        <v>1136.977392826405</v>
       </c>
       <c r="W22" t="n">
-        <v>1076.333099576889</v>
+        <v>857.907728335279</v>
       </c>
       <c r="X22" t="n">
-        <v>1076.333099576889</v>
+        <v>619.5638661949624</v>
       </c>
       <c r="Y22" t="n">
-        <v>1076.333099576889</v>
+        <v>394.8281675837271</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>520.9982125115038</v>
+        <v>784.8087366335162</v>
       </c>
       <c r="C23" t="n">
-        <v>110.8736218247739</v>
+        <v>374.6841459467863</v>
       </c>
       <c r="D23" t="n">
-        <v>110.8736218247739</v>
+        <v>374.6841459467863</v>
       </c>
       <c r="E23" t="n">
-        <v>110.8736218247739</v>
+        <v>374.6841459467863</v>
       </c>
       <c r="F23" t="n">
-        <v>110.8736218247739</v>
+        <v>374.6841459467863</v>
       </c>
       <c r="G23" t="n">
-        <v>110.8736218247739</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H23" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I23" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J23" t="n">
         <v>143.8778192802977</v>
@@ -5995,10 +5995,10 @@
         <v>326.0552168887697</v>
       </c>
       <c r="L23" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M23" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N23" t="n">
         <v>1135.28612147837</v>
@@ -6019,22 +6019,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T23" t="n">
-        <v>1589.04303183634</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U23" t="n">
-        <v>1332.156065227903</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.156065227903</v>
+        <v>1195.029916298006</v>
       </c>
       <c r="W23" t="n">
-        <v>1332.156065227903</v>
+        <v>1195.029916298006</v>
       </c>
       <c r="X23" t="n">
-        <v>1332.156065227903</v>
+        <v>1195.029916298006</v>
       </c>
       <c r="Y23" t="n">
-        <v>931.2193921759932</v>
+        <v>1195.029916298006</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>681.7483020962025</v>
+        <v>561.2554860885303</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7532308451481</v>
+        <v>427.260414837476</v>
       </c>
       <c r="D24" t="n">
-        <v>430.8560730645405</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="E24" t="n">
         <v>310.3632570568685</v>
       </c>
       <c r="F24" t="n">
-        <v>201.4033772393731</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G24" t="n">
-        <v>95.57381618866216</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H24" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I24" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J24" t="n">
-        <v>226.627515560926</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K24" t="n">
-        <v>355.034296551719</v>
+        <v>657.7213022333054</v>
       </c>
       <c r="L24" t="n">
-        <v>546.4536891426818</v>
+        <v>849.1406948242683</v>
       </c>
       <c r="M24" t="n">
-        <v>992.3879124412475</v>
+        <v>1080.357628918228</v>
       </c>
       <c r="N24" t="n">
-        <v>1235.559971964092</v>
+        <v>1323.529688441073</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.01588185403</v>
+        <v>1536.985598331011</v>
       </c>
       <c r="P24" t="n">
-        <v>1612.503176317613</v>
+        <v>1700.472892794593</v>
       </c>
       <c r="Q24" t="n">
-        <v>1701.572828547836</v>
+        <v>1789.542545024816</v>
       </c>
       <c r="R24" t="n">
         <v>1801.754437569962</v>
@@ -6098,22 +6098,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T24" t="n">
-        <v>1781.998430280238</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U24" t="n">
-        <v>1584.723971499704</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V24" t="n">
-        <v>1371.012444492737</v>
+        <v>1250.519628485065</v>
       </c>
       <c r="W24" t="n">
-        <v>1157.779276229066</v>
+        <v>1037.286460221394</v>
       </c>
       <c r="X24" t="n">
-        <v>981.4532943679591</v>
+        <v>860.960478360287</v>
       </c>
       <c r="Y24" t="n">
-        <v>822.0513347317891</v>
+        <v>701.558518724117</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>833.1219364444963</v>
+        <v>368.0392763213633</v>
       </c>
       <c r="C25" t="n">
-        <v>662.0285640062128</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="D25" t="n">
-        <v>502.5339193291229</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="E25" t="n">
-        <v>341.6231041974423</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F25" t="n">
-        <v>176.9919783080336</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G25" t="n">
-        <v>176.9919783080336</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H25" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I25" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J25" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K25" t="n">
-        <v>111.5999293467747</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L25" t="n">
-        <v>462.6758375186921</v>
+        <v>470.5745988896003</v>
       </c>
       <c r="M25" t="n">
-        <v>901.4218831196206</v>
+        <v>564.3542949762432</v>
       </c>
       <c r="N25" t="n">
-        <v>1328.188307080745</v>
+        <v>991.1207189373674</v>
       </c>
       <c r="O25" t="n">
-        <v>1722.536713467443</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P25" t="n">
-        <v>1782.648915084768</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q25" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R25" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S25" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T25" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U25" t="n">
-        <v>1760.229876346689</v>
+        <v>1571.773953018563</v>
       </c>
       <c r="V25" t="n">
-        <v>1760.229876346689</v>
+        <v>1297.888207958085</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.901203590093</v>
+        <v>1018.81854346696</v>
       </c>
       <c r="X25" t="n">
-        <v>1245.557341449776</v>
+        <v>780.474681326643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1020.821642838541</v>
+        <v>555.7389827154077</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="C26" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="D26" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="E26" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="F26" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G26" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H26" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I26" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J26" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K26" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L26" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M26" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N26" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O26" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P26" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q26" t="n">
         <v>1754.652407274058</v>
@@ -6253,25 +6253,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S26" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T26" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="U26" t="n">
-        <v>1544.867470961525</v>
+        <v>1634.325557178243</v>
       </c>
       <c r="V26" t="n">
-        <v>1544.867470961525</v>
+        <v>1634.325557178243</v>
       </c>
       <c r="W26" t="n">
-        <v>1161.107170096694</v>
+        <v>1250.565256313412</v>
       </c>
       <c r="X26" t="n">
-        <v>760.4637722656462</v>
+        <v>849.9218584823641</v>
       </c>
       <c r="Y26" t="n">
-        <v>446.2562684158887</v>
+        <v>448.9851854304542</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>310.3632570568685</v>
       </c>
       <c r="F27" t="n">
-        <v>201.403377239373</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="G27" t="n">
-        <v>95.57381618866215</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H27" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I27" t="n">
-        <v>54.86182750109193</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J27" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K27" t="n">
-        <v>239.8777719806492</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L27" t="n">
-        <v>431.297164571612</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M27" t="n">
-        <v>723.4930578498856</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N27" t="n">
-        <v>966.6651173727304</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O27" t="n">
-        <v>1180.121027262668</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P27" t="n">
-        <v>1343.608321726251</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q27" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R27" t="n">
         <v>1801.754437569962</v>
@@ -6335,16 +6335,16 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T27" t="n">
-        <v>1647.09041126802</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U27" t="n">
         <v>1449.815952487486</v>
       </c>
       <c r="V27" t="n">
-        <v>1236.104425480519</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W27" t="n">
-        <v>1022.871257216848</v>
+        <v>1022.871257216849</v>
       </c>
       <c r="X27" t="n">
         <v>981.4532943679591</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>273.7501231504467</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="C28" t="n">
-        <v>176.9919783080335</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="D28" t="n">
-        <v>176.9919783080335</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="E28" t="n">
-        <v>176.9919783080335</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F28" t="n">
-        <v>176.9919783080335</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G28" t="n">
-        <v>176.9919783080335</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H28" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I28" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J28" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K28" t="n">
-        <v>382.8814865638252</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L28" t="n">
-        <v>784.5537101246234</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M28" t="n">
-        <v>878.3334062112664</v>
+        <v>952.0181985085013</v>
       </c>
       <c r="N28" t="n">
-        <v>1067.290823607626</v>
+        <v>1378.784622469625</v>
       </c>
       <c r="O28" t="n">
-        <v>1461.639229994325</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P28" t="n">
-        <v>1782.648915084767</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q28" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R28" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S28" t="n">
-        <v>1760.229876346689</v>
+        <v>1757.906356175625</v>
       </c>
       <c r="T28" t="n">
-        <v>1760.229876346689</v>
+        <v>1522.514841947641</v>
       </c>
       <c r="U28" t="n">
-        <v>1477.484799847647</v>
+        <v>1239.769765448599</v>
       </c>
       <c r="V28" t="n">
-        <v>1203.599054787169</v>
+        <v>965.8840203881211</v>
       </c>
       <c r="W28" t="n">
-        <v>924.5293902960429</v>
+        <v>686.8143558969955</v>
       </c>
       <c r="X28" t="n">
-        <v>686.1855281557264</v>
+        <v>448.4704937566789</v>
       </c>
       <c r="Y28" t="n">
-        <v>461.4498295444911</v>
+        <v>223.7347951454437</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.754437569962</v>
+        <v>1278.59856320232</v>
       </c>
       <c r="C29" t="n">
-        <v>1391.629846883232</v>
+        <v>1278.59856320232</v>
       </c>
       <c r="D29" t="n">
-        <v>1391.629846883232</v>
+        <v>874.1346332953805</v>
       </c>
       <c r="E29" t="n">
-        <v>1152.319289893543</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="F29" t="n">
-        <v>731.2888778472302</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G29" t="n">
-        <v>324.7296578907234</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H29" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I29" t="n">
         <v>36.03508875139925</v>
@@ -6466,7 +6466,7 @@
         <v>143.8778192802977</v>
       </c>
       <c r="K29" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887695</v>
       </c>
       <c r="L29" t="n">
         <v>567.0076014019884</v>
@@ -6493,22 +6493,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T29" t="n">
-        <v>1801.754437569962</v>
+        <v>1688.819742866809</v>
       </c>
       <c r="U29" t="n">
-        <v>1801.754437569962</v>
+        <v>1688.819742866809</v>
       </c>
       <c r="V29" t="n">
-        <v>1801.754437569962</v>
+        <v>1688.819742866809</v>
       </c>
       <c r="W29" t="n">
-        <v>1801.754437569962</v>
+        <v>1688.819742866809</v>
       </c>
       <c r="X29" t="n">
-        <v>1801.754437569962</v>
+        <v>1688.819742866809</v>
       </c>
       <c r="Y29" t="n">
-        <v>1801.754437569962</v>
+        <v>1688.819742866809</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>681.7483020962025</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7532308451481</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="D30" t="n">
         <v>430.8560730645405</v>
@@ -6539,28 +6539,28 @@
         <v>36.03508875139925</v>
       </c>
       <c r="I30" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J30" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L30" t="n">
-        <v>412.4704258219193</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M30" t="n">
-        <v>643.6873599158794</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.081658555464</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O30" t="n">
-        <v>1449.01588185403</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P30" t="n">
-        <v>1612.503176317613</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q30" t="n">
         <v>1701.572828547836</v>
@@ -6569,25 +6569,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S30" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T30" t="n">
-        <v>1781.998430280238</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U30" t="n">
-        <v>1584.723971499704</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V30" t="n">
-        <v>1371.012444492737</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W30" t="n">
-        <v>1157.779276229066</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="X30" t="n">
-        <v>981.4532943679591</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y30" t="n">
-        <v>822.0513347317891</v>
+        <v>600.7100434392091</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>207.1284611896828</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="C31" t="n">
-        <v>36.03508875139925</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="D31" t="n">
-        <v>36.03508875139925</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="E31" t="n">
-        <v>36.03508875139925</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="F31" t="n">
-        <v>36.03508875139925</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="G31" t="n">
-        <v>36.03508875139925</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="H31" t="n">
-        <v>36.03508875139925</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I31" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J31" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K31" t="n">
-        <v>382.8814865638252</v>
+        <v>317.8801229324888</v>
       </c>
       <c r="L31" t="n">
-        <v>470.5745988896003</v>
+        <v>405.5732352582639</v>
       </c>
       <c r="M31" t="n">
-        <v>909.3206444905288</v>
+        <v>844.3192808591923</v>
       </c>
       <c r="N31" t="n">
-        <v>1004.052767004068</v>
+        <v>1271.085704820317</v>
       </c>
       <c r="O31" t="n">
-        <v>1335.365269788488</v>
+        <v>1350.359351788275</v>
       </c>
       <c r="P31" t="n">
         <v>1656.374954878931</v>
@@ -6648,25 +6648,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S31" t="n">
-        <v>1693.608214385925</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T31" t="n">
-        <v>1693.608214385925</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U31" t="n">
-        <v>1410.863137886883</v>
+        <v>1611.021757533741</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.977392826405</v>
+        <v>1337.136012473263</v>
       </c>
       <c r="W31" t="n">
-        <v>857.907728335279</v>
+        <v>1058.066347982138</v>
       </c>
       <c r="X31" t="n">
-        <v>619.5638661949624</v>
+        <v>819.7224858418213</v>
       </c>
       <c r="Y31" t="n">
-        <v>394.8281675837271</v>
+        <v>594.9867872305859</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>520.9982125115038</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="C32" t="n">
-        <v>110.8736218247739</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="D32" t="n">
-        <v>36.03508875139925</v>
+        <v>453.104221249068</v>
       </c>
       <c r="E32" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="F32" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G32" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H32" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I32" t="n">
         <v>36.03508875139925</v>
@@ -6703,13 +6703,13 @@
         <v>143.8778192802977</v>
       </c>
       <c r="K32" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887695</v>
       </c>
       <c r="L32" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019884</v>
       </c>
       <c r="M32" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N32" t="n">
         <v>1135.28612147837</v>
@@ -6727,25 +6727,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S32" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T32" t="n">
-        <v>1589.04303183634</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U32" t="n">
-        <v>1332.156065227903</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V32" t="n">
-        <v>1332.156065227903</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="W32" t="n">
-        <v>1332.156065227903</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="X32" t="n">
-        <v>1332.156065227903</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="Y32" t="n">
-        <v>931.2193921759932</v>
+        <v>857.5681511560075</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>681.7483020962025</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7532308451481</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D33" t="n">
-        <v>430.8560730645405</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E33" t="n">
-        <v>310.3632570568685</v>
+        <v>144.9949685688947</v>
       </c>
       <c r="F33" t="n">
-        <v>201.4033772393731</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G33" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H33" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I33" t="n">
-        <v>54.86182750109194</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J33" t="n">
-        <v>111.4709909898562</v>
+        <v>336.3126562147968</v>
       </c>
       <c r="K33" t="n">
-        <v>239.8777719806492</v>
+        <v>464.7194372055898</v>
       </c>
       <c r="L33" t="n">
-        <v>431.297164571612</v>
+        <v>656.1388297965526</v>
       </c>
       <c r="M33" t="n">
-        <v>877.2313878701777</v>
+        <v>887.3557638905127</v>
       </c>
       <c r="N33" t="n">
-        <v>1120.403447393022</v>
+        <v>1130.527823413358</v>
       </c>
       <c r="O33" t="n">
-        <v>1536.985598331011</v>
+        <v>1343.983733303295</v>
       </c>
       <c r="P33" t="n">
-        <v>1700.472892794594</v>
+        <v>1507.471027766878</v>
       </c>
       <c r="Q33" t="n">
         <v>1789.542545024817</v>
@@ -6806,25 +6806,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.3211652896</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T33" t="n">
-        <v>1605.672448419131</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U33" t="n">
-        <v>1408.397989638597</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V33" t="n">
-        <v>1194.68646263163</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W33" t="n">
-        <v>981.4532943679591</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X33" t="n">
-        <v>981.4532943679591</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y33" t="n">
-        <v>822.0513347317891</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1086.48561947764</v>
+        <v>981.5395723736747</v>
       </c>
       <c r="C34" t="n">
-        <v>915.3922470393566</v>
+        <v>810.4461999353912</v>
       </c>
       <c r="D34" t="n">
-        <v>755.8976023622665</v>
+        <v>650.9515552583011</v>
       </c>
       <c r="E34" t="n">
-        <v>594.9867872305859</v>
+        <v>490.0407401266206</v>
       </c>
       <c r="F34" t="n">
-        <v>430.3556613411772</v>
+        <v>325.4096142372119</v>
       </c>
       <c r="G34" t="n">
-        <v>264.0782377720069</v>
+        <v>159.1321906680416</v>
       </c>
       <c r="H34" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I34" t="n">
         <v>36.03508875139925</v>
@@ -6861,49 +6861,49 @@
         <v>52.53617997680181</v>
       </c>
       <c r="K34" t="n">
-        <v>111.5999293467747</v>
+        <v>317.8801229324888</v>
       </c>
       <c r="L34" t="n">
-        <v>513.2721529075728</v>
+        <v>405.5732352582639</v>
       </c>
       <c r="M34" t="n">
-        <v>952.0181985085013</v>
+        <v>844.3192808591923</v>
       </c>
       <c r="N34" t="n">
-        <v>1328.188307080745</v>
+        <v>1271.085704820317</v>
       </c>
       <c r="O34" t="n">
-        <v>1722.536713467443</v>
+        <v>1350.359351788275</v>
       </c>
       <c r="P34" t="n">
-        <v>1782.648915084768</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q34" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R34" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S34" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T34" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U34" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="V34" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="W34" t="n">
-        <v>1737.264886623236</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.92102448292</v>
+        <v>1393.974977378954</v>
       </c>
       <c r="Y34" t="n">
-        <v>1274.185325871684</v>
+        <v>1169.239278767719</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.964936237322</v>
+        <v>554.905504317334</v>
       </c>
       <c r="C35" t="n">
-        <v>1277.964936237322</v>
+        <v>144.7809136306041</v>
       </c>
       <c r="D35" t="n">
-        <v>1277.964936237322</v>
+        <v>144.7809136306041</v>
       </c>
       <c r="E35" t="n">
-        <v>863.6247207542185</v>
+        <v>144.7809136306041</v>
       </c>
       <c r="F35" t="n">
-        <v>442.594308707906</v>
+        <v>144.7809136306041</v>
       </c>
       <c r="G35" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H35" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I35" t="n">
         <v>36.03508875139925</v>
@@ -6946,7 +6946,7 @@
         <v>567.0076014019885</v>
       </c>
       <c r="M35" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N35" t="n">
         <v>1135.28612147837</v>
@@ -6967,22 +6967,22 @@
         <v>1715.900911697253</v>
       </c>
       <c r="T35" t="n">
-        <v>1534.851902845759</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="U35" t="n">
-        <v>1277.964936237322</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="V35" t="n">
-        <v>1277.964936237322</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="W35" t="n">
-        <v>1277.964936237322</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="X35" t="n">
-        <v>1277.964936237322</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="Y35" t="n">
-        <v>1277.964936237322</v>
+        <v>965.1266839818235</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J36" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K36" t="n">
-        <v>239.8777719806492</v>
+        <v>569.7515857563246</v>
       </c>
       <c r="L36" t="n">
-        <v>431.297164571612</v>
+        <v>761.1709783472875</v>
       </c>
       <c r="M36" t="n">
-        <v>662.5140986655721</v>
+        <v>992.3879124412475</v>
       </c>
       <c r="N36" t="n">
-        <v>905.6861581884168</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O36" t="n">
-        <v>1119.142068078354</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P36" t="n">
-        <v>1282.629362541937</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q36" t="n">
         <v>1701.572828547836</v>
@@ -7046,13 +7046,13 @@
         <v>1715.3211652896</v>
       </c>
       <c r="T36" t="n">
-        <v>1560.657138987658</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="U36" t="n">
-        <v>1363.382680207124</v>
+        <v>1584.723971499704</v>
       </c>
       <c r="V36" t="n">
-        <v>1363.382680207124</v>
+        <v>1371.012444492737</v>
       </c>
       <c r="W36" t="n">
         <v>1157.779276229066</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>687.3490980187489</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="C37" t="n">
-        <v>687.3490980187489</v>
+        <v>79.88317014573661</v>
       </c>
       <c r="D37" t="n">
-        <v>527.8544533416589</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="E37" t="n">
-        <v>366.9436382099783</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F37" t="n">
-        <v>202.3125123205695</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G37" t="n">
         <v>36.03508875139925</v>
@@ -7095,19 +7095,19 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J37" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K37" t="n">
-        <v>111.5999293467747</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L37" t="n">
-        <v>513.2721529075728</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M37" t="n">
-        <v>952.0181985085013</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N37" t="n">
-        <v>1378.784622469625</v>
+        <v>1643.263066499485</v>
       </c>
       <c r="O37" t="n">
         <v>1722.536713467443</v>
@@ -7119,28 +7119,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S37" t="n">
-        <v>1590.794278295998</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T37" t="n">
-        <v>1355.402764068014</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.304507570353</v>
+        <v>1283.617846842937</v>
       </c>
       <c r="V37" t="n">
-        <v>966.4187625098746</v>
+        <v>1009.732101782459</v>
       </c>
       <c r="W37" t="n">
-        <v>687.3490980187489</v>
+        <v>730.6624372913329</v>
       </c>
       <c r="X37" t="n">
-        <v>687.3490980187489</v>
+        <v>492.3185751510163</v>
       </c>
       <c r="Y37" t="n">
-        <v>687.3490980187489</v>
+        <v>267.582876539781</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>850.6236093450686</v>
+        <v>1267.692741842737</v>
       </c>
       <c r="C38" t="n">
-        <v>440.4990186583387</v>
+        <v>857.5681511560075</v>
       </c>
       <c r="D38" t="n">
-        <v>36.03508875139925</v>
+        <v>453.104221249068</v>
       </c>
       <c r="E38" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="F38" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G38" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H38" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I38" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J38" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K38" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L38" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M38" t="n">
         <v>847.9396778919402</v>
@@ -7201,25 +7201,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="V38" t="n">
-        <v>1366.063357033733</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="W38" t="n">
-        <v>1366.063357033733</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="X38" t="n">
-        <v>1366.063357033733</v>
+        <v>1668.629414894647</v>
       </c>
       <c r="Y38" t="n">
-        <v>1260.844789009558</v>
+        <v>1267.692741842737</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>460.4070108036225</v>
+        <v>546.8402830839849</v>
       </c>
       <c r="C39" t="n">
-        <v>326.4119395525682</v>
+        <v>412.8452118329306</v>
       </c>
       <c r="D39" t="n">
-        <v>209.5147817719606</v>
+        <v>295.948054052323</v>
       </c>
       <c r="E39" t="n">
-        <v>89.02196576428858</v>
+        <v>175.455238044651</v>
       </c>
       <c r="F39" t="n">
-        <v>36.03508875139925</v>
+        <v>175.455238044651</v>
       </c>
       <c r="G39" t="n">
-        <v>36.03508875139925</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H39" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I39" t="n">
-        <v>54.86182750109194</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J39" t="n">
-        <v>111.4709909898562</v>
+        <v>172.4499501741702</v>
       </c>
       <c r="K39" t="n">
-        <v>239.8777719806492</v>
+        <v>300.8567311649632</v>
       </c>
       <c r="L39" t="n">
-        <v>616.6623814156405</v>
+        <v>492.2761237559261</v>
       </c>
       <c r="M39" t="n">
-        <v>847.8793155096006</v>
+        <v>723.4930578498861</v>
       </c>
       <c r="N39" t="n">
-        <v>1091.051375032445</v>
+        <v>966.6651173727308</v>
       </c>
       <c r="O39" t="n">
-        <v>1536.985598331011</v>
+        <v>1180.121027262669</v>
       </c>
       <c r="P39" t="n">
-        <v>1700.472892794594</v>
+        <v>1343.608321726251</v>
       </c>
       <c r="Q39" t="n">
         <v>1789.542545024817</v>
@@ -7280,25 +7280,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T39" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U39" t="n">
-        <v>1363.382680207124</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V39" t="n">
-        <v>1149.671153200158</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W39" t="n">
-        <v>936.4379849364863</v>
+        <v>1022.871257216849</v>
       </c>
       <c r="X39" t="n">
-        <v>760.1120030753791</v>
+        <v>846.5452753557415</v>
       </c>
       <c r="Y39" t="n">
-        <v>600.7100434392091</v>
+        <v>687.1433157195715</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>999.3993600136666</v>
+        <v>527.5339209984533</v>
       </c>
       <c r="C40" t="n">
-        <v>828.3059875753831</v>
+        <v>356.4405485601698</v>
       </c>
       <c r="D40" t="n">
-        <v>668.8113428982931</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="E40" t="n">
-        <v>507.9005277666126</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F40" t="n">
-        <v>343.2694018772038</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G40" t="n">
-        <v>176.9919783080336</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H40" t="n">
         <v>36.03508875139925</v>
@@ -7335,22 +7335,22 @@
         <v>52.53617997680181</v>
       </c>
       <c r="K40" t="n">
-        <v>111.5999293467747</v>
+        <v>317.8801229324888</v>
       </c>
       <c r="L40" t="n">
-        <v>462.6758375186921</v>
+        <v>405.5732352582639</v>
       </c>
       <c r="M40" t="n">
-        <v>901.4218831196206</v>
+        <v>844.3192808591923</v>
       </c>
       <c r="N40" t="n">
-        <v>1328.188307080745</v>
+        <v>1271.085704820317</v>
       </c>
       <c r="O40" t="n">
-        <v>1722.536713467443</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P40" t="n">
-        <v>1782.648915084768</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q40" t="n">
         <v>1801.754437569962</v>
@@ -7362,22 +7362,22 @@
         <v>1632.318839519271</v>
       </c>
       <c r="T40" t="n">
-        <v>1632.318839519271</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U40" t="n">
-        <v>1632.318839519271</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="V40" t="n">
-        <v>1632.318839519271</v>
+        <v>840.296503731767</v>
       </c>
       <c r="W40" t="n">
-        <v>1353.249175028145</v>
+        <v>561.2268392406413</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.249175028145</v>
+        <v>561.2268392406413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1187.099066407711</v>
+        <v>527.5339209984533</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.1596794381292</v>
+        <v>1391.533257905473</v>
       </c>
       <c r="C41" t="n">
-        <v>36.03508875139924</v>
+        <v>981.4086672187426</v>
       </c>
       <c r="D41" t="n">
-        <v>36.03508875139924</v>
+        <v>981.4086672187426</v>
       </c>
       <c r="E41" t="n">
-        <v>36.03508875139924</v>
+        <v>567.0684517356393</v>
       </c>
       <c r="F41" t="n">
-        <v>36.03508875139924</v>
+        <v>146.0380396893269</v>
       </c>
       <c r="G41" t="n">
-        <v>36.03508875139924</v>
+        <v>146.0380396893269</v>
       </c>
       <c r="H41" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I41" t="n">
         <v>36.03508875139924</v>
@@ -7420,7 +7420,7 @@
         <v>567.0076014019885</v>
       </c>
       <c r="M41" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N41" t="n">
         <v>1135.28612147837</v>
@@ -7429,7 +7429,7 @@
         <v>1401.21843916599</v>
       </c>
       <c r="P41" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q41" t="n">
         <v>1754.652407274058</v>
@@ -7438,25 +7438,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T41" t="n">
-        <v>1503.18950596363</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U41" t="n">
-        <v>1246.302539355193</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="V41" t="n">
-        <v>896.4649846916736</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="W41" t="n">
-        <v>512.7046838268423</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="X41" t="n">
-        <v>446.1596794381292</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="Y41" t="n">
-        <v>446.1596794381292</v>
+        <v>1801.754437569962</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>460.407010803622</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C42" t="n">
-        <v>326.4119395525677</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D42" t="n">
-        <v>209.5147817719601</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E42" t="n">
-        <v>201.403377239373</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F42" t="n">
-        <v>201.403377239373</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G42" t="n">
-        <v>95.57381618866215</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H42" t="n">
         <v>36.03508875139924</v>
@@ -7490,28 +7490,28 @@
         <v>54.86182750109193</v>
       </c>
       <c r="J42" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K42" t="n">
-        <v>239.8777719806492</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L42" t="n">
-        <v>431.297164571612</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M42" t="n">
-        <v>662.5140986655721</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N42" t="n">
-        <v>905.6861581884168</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O42" t="n">
-        <v>1254.538669496028</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P42" t="n">
-        <v>1700.472892794593</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q42" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R42" t="n">
         <v>1801.754437569962</v>
@@ -7520,22 +7520,22 @@
         <v>1715.3211652896</v>
       </c>
       <c r="T42" t="n">
-        <v>1560.657138987658</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.382680207123</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.671153200157</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W42" t="n">
-        <v>936.4379849364858</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X42" t="n">
-        <v>760.1120030753787</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y42" t="n">
-        <v>600.7100434392087</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.666214640808</v>
+        <v>538.0370106482617</v>
       </c>
       <c r="C43" t="n">
-        <v>200.666214640808</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="D43" t="n">
-        <v>200.666214640808</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="E43" t="n">
-        <v>200.666214640808</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="F43" t="n">
-        <v>36.03508875139924</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G43" t="n">
         <v>36.03508875139924</v>
@@ -7572,22 +7572,22 @@
         <v>52.5361799768018</v>
       </c>
       <c r="K43" t="n">
-        <v>111.5999293467747</v>
+        <v>317.8801229324888</v>
       </c>
       <c r="L43" t="n">
-        <v>462.6758375186917</v>
+        <v>719.5523464932869</v>
       </c>
       <c r="M43" t="n">
-        <v>901.4218831196201</v>
+        <v>813.3320425799299</v>
       </c>
       <c r="N43" t="n">
-        <v>1328.188307080744</v>
+        <v>1240.098466541054</v>
       </c>
       <c r="O43" t="n">
-        <v>1722.536713467443</v>
+        <v>1634.446872927753</v>
       </c>
       <c r="P43" t="n">
-        <v>1782.648915084767</v>
+        <v>1694.559074545077</v>
       </c>
       <c r="Q43" t="n">
         <v>1801.754437569962</v>
@@ -7596,25 +7596,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S43" t="n">
-        <v>1801.754437569962</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T43" t="n">
-        <v>1566.362923341978</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U43" t="n">
-        <v>1283.617846842936</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.732101782458</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="W43" t="n">
-        <v>851.4454817864043</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="X43" t="n">
-        <v>613.1016196460877</v>
+        <v>950.4724156535414</v>
       </c>
       <c r="Y43" t="n">
-        <v>388.3659210348524</v>
+        <v>725.7367170423061</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>457.0655007977117</v>
+        <v>1314.964238645342</v>
       </c>
       <c r="C44" t="n">
-        <v>457.0655007977117</v>
+        <v>904.8396479586125</v>
       </c>
       <c r="D44" t="n">
-        <v>457.0655007977117</v>
+        <v>904.8396479586125</v>
       </c>
       <c r="E44" t="n">
-        <v>457.0655007977117</v>
+        <v>490.4994324755093</v>
       </c>
       <c r="F44" t="n">
-        <v>36.03508875139924</v>
+        <v>69.4690204291968</v>
       </c>
       <c r="G44" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H44" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I44" t="n">
         <v>36.03508875139924</v>
@@ -7657,7 +7657,7 @@
         <v>567.0076014019885</v>
       </c>
       <c r="M44" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919397</v>
       </c>
       <c r="N44" t="n">
         <v>1135.28612147837</v>
@@ -7675,25 +7675,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S44" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T44" t="n">
-        <v>1589.04303183634</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U44" t="n">
-        <v>1589.04303183634</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="V44" t="n">
-        <v>1589.04303183634</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="W44" t="n">
-        <v>1258.645571680669</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="X44" t="n">
-        <v>858.0021738496216</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="Y44" t="n">
-        <v>457.0655007977117</v>
+        <v>1314.964238645342</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>460.4070108036223</v>
+        <v>622.2095746589395</v>
       </c>
       <c r="C45" t="n">
-        <v>326.411939552568</v>
+        <v>488.2145034078852</v>
       </c>
       <c r="D45" t="n">
-        <v>209.5147817719604</v>
+        <v>371.3173456272776</v>
       </c>
       <c r="E45" t="n">
-        <v>89.02196576428835</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F45" t="n">
-        <v>36.03508875139924</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G45" t="n">
         <v>36.03508875139924</v>
@@ -7724,55 +7724,55 @@
         <v>36.03508875139924</v>
       </c>
       <c r="I45" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J45" t="n">
-        <v>92.64425224016347</v>
+        <v>172.4499501741698</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0510332309564</v>
+        <v>300.8567311649628</v>
       </c>
       <c r="L45" t="n">
-        <v>412.4704258219192</v>
+        <v>492.2761237559256</v>
       </c>
       <c r="M45" t="n">
-        <v>643.6873599158791</v>
+        <v>723.4930578498856</v>
       </c>
       <c r="N45" t="n">
-        <v>1041.08275960609</v>
+        <v>966.6651173727304</v>
       </c>
       <c r="O45" t="n">
-        <v>1254.538669496028</v>
+        <v>1180.121027262668</v>
       </c>
       <c r="P45" t="n">
-        <v>1700.472892794593</v>
+        <v>1343.608321726251</v>
       </c>
       <c r="Q45" t="n">
-        <v>1789.542545024817</v>
+        <v>1789.542545024816</v>
       </c>
       <c r="R45" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T45" t="n">
-        <v>1560.657138987658</v>
+        <v>1722.459702842975</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.382680207123</v>
+        <v>1525.185244062441</v>
       </c>
       <c r="V45" t="n">
-        <v>1149.671153200157</v>
+        <v>1311.473717055474</v>
       </c>
       <c r="W45" t="n">
-        <v>936.437984936486</v>
+        <v>1098.240548791803</v>
       </c>
       <c r="X45" t="n">
-        <v>760.1120030753789</v>
+        <v>921.9145669306961</v>
       </c>
       <c r="Y45" t="n">
-        <v>600.7100434392089</v>
+        <v>762.5126072945261</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1086.48561947764</v>
+        <v>730.6624372913325</v>
       </c>
       <c r="C46" t="n">
-        <v>915.3922470393566</v>
+        <v>559.569064853049</v>
       </c>
       <c r="D46" t="n">
-        <v>755.8976023622665</v>
+        <v>400.074420175959</v>
       </c>
       <c r="E46" t="n">
-        <v>594.9867872305859</v>
+        <v>239.1636050442785</v>
       </c>
       <c r="F46" t="n">
-        <v>430.3556613411772</v>
+        <v>239.1636050442785</v>
       </c>
       <c r="G46" t="n">
-        <v>264.0782377720069</v>
+        <v>72.8861814751082</v>
       </c>
       <c r="H46" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I46" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5375436081382</v>
+        <v>52.5361799768018</v>
       </c>
       <c r="K46" t="n">
-        <v>279.6960032663422</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L46" t="n">
-        <v>681.3682268271403</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M46" t="n">
-        <v>775.1479229137833</v>
+        <v>952.0181985085013</v>
       </c>
       <c r="N46" t="n">
-        <v>1201.914346874908</v>
+        <v>1378.784622469625</v>
       </c>
       <c r="O46" t="n">
-        <v>1596.262753261606</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P46" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q46" t="n">
         <v>1801.754437569962</v>
@@ -7836,22 +7836,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T46" t="n">
-        <v>1801.754437569962</v>
+        <v>1566.362923341978</v>
       </c>
       <c r="U46" t="n">
-        <v>1777.990688974045</v>
+        <v>1283.617846842936</v>
       </c>
       <c r="V46" t="n">
-        <v>1777.990688974045</v>
+        <v>1009.732101782458</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.92102448292</v>
+        <v>730.6624372913325</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.92102448292</v>
+        <v>730.6624372913325</v>
       </c>
       <c r="Y46" t="n">
-        <v>1274.185325871684</v>
+        <v>730.6624372913325</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>0.7485506060653648</v>
       </c>
       <c r="J12" t="n">
-        <v>61.59490826698388</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.4692637053964</v>
+        <v>352.2227803286541</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.9914426895945</v>
       </c>
       <c r="O13" t="n">
-        <v>3.092028497753773</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>333.2058725006822</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9087,13 +9087,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>104.1360709982137</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>285.3033315716904</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9102,10 +9102,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>352.2227803286546</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>200.3852850654606</v>
       </c>
       <c r="M19" t="n">
-        <v>33.81065722453215</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
@@ -9339,7 +9339,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.07617151620417</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9567,19 +9567,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>285.8849435310357</v>
+        <v>64.983540189168</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>116.3197217889594</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>175.934470987902</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>216.8861507117229</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>266.0432281274165</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>267.6473776597601</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>61.59490826698345</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>360.4692637053963</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>95.17706553820334</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>318.2573327462026</v>
+        <v>267.149943464505</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>117.3962011280203</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.8265792006343</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>208.3638319047618</v>
@@ -10281,13 +10281,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>254.584702844912</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>248.3872742154867</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.76545843403778</v>
+        <v>0.7485506060653648</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>216.8861507117229</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>205.1780212606575</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>194.9513788158746</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>284.2807939986918</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>248.3872742154867</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>333.2058725006822</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,10 +10755,10 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>328.5163517781766</v>
       </c>
       <c r="O37" t="n">
-        <v>267.149943464505</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.76545843403778</v>
+        <v>0.7485506060653648</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>80.61181609495625</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>187.2375927717459</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>234.8265792006343</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>360.4692637053964</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>266.0432281274165</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,13 +10995,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>248.3872742154867</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>136.7642438562354</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>285.2999281161444</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>266.043228127416</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>88.97963690877796</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>61.5949082669834</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>155.7811516842084</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>285.2999281161445</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>360.4692637053963</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>104.1360709982133</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>267.1499434645046</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>249.8056047593387</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H11" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>330.8530325958925</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>74.61559865920546</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>133.5589388220952</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>101.4937467902019</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S13" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>253.5436280199958</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>170.3769355809065</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3180969423526</v>
@@ -23560,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>166.6264776841507</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>52.31425719744335</v>
+        <v>0.9038182835515158</v>
       </c>
       <c r="H15" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9176257340516</v>
+        <v>50.59574938445039</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0830778107564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>170.3769355809065</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>32.80554303830507</v>
       </c>
     </row>
     <row r="18">
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6.486331920129842</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>104.7712654402038</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>55.41327277656012</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>45.26125114227303</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>122.2613711872655</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H20" t="n">
-        <v>90.16828736697269</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I20" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5842916762861</v>
+        <v>7.616450987133675</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.56893955755871</v>
+        <v>55.41327277656058</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>25.68865780277488</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>10.05099470174397</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>125.9728381335072</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4936277569416</v>
+        <v>69.93268897792831</v>
       </c>
       <c r="H23" t="n">
-        <v>211.7174757052901</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I23" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24338,13 +24338,13 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T24" t="n">
-        <v>133.5589388220952</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>14.27105097450041</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I25" t="n">
         <v>86.2153968693336</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S25" t="n">
         <v>167.7412420701844</v>
@@ -24420,13 +24420,13 @@
         <v>233.0375990857039</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9176257340516</v>
+        <v>52.23694602816701</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>2.713581817183638</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I26" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>173.558495968533</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.86187751013091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>133.5589388220959</v>
+        <v>133.5589388220954</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.59187531991162</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24618,7 +24618,7 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I28" t="n">
         <v>86.2153968693336</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S28" t="n">
-        <v>167.7412420701844</v>
+        <v>124.3316414897906</v>
       </c>
       <c r="T28" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>173.2793619084794</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I29" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5842916762861</v>
+        <v>98.77894392016447</v>
       </c>
       <c r="U29" t="n">
         <v>254.3180969423526</v>
@@ -24761,10 +24761,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>86.47275784111034</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>133.5589388220952</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S31" t="n">
-        <v>60.67648111798722</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>258.8335145683774</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>326.3291428652292</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -24937,7 +24937,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I32" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>11.78991953554299</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>55.41327277656012</v>
       </c>
       <c r="T33" t="n">
-        <v>44.56515633715807</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.68118976359203</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S34" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.0375990857039</v>
@@ -25137,7 +25137,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>253.5436280199958</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>297.5368889709487</v>
       </c>
       <c r="H35" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I35" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>31.34577291330709</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25286,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>66.0104923407317</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.553466642757627</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>114.4900976499251</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H37" t="n">
         <v>139.5473206610679</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>165.9703518013666</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25411,7 +25411,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I38" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T38" t="n">
         <v>210.5842916762861</v>
@@ -25450,16 +25450,16 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>264.8431914041749</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.7609239774573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>55.41327277656003</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7712654402038</v>
+        <v>25.68865780277484</v>
       </c>
       <c r="H39" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I40" t="n">
         <v>86.2153968693336</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.99973409089293</v>
+        <v>189.1323525653568</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H41" t="n">
-        <v>285.807623447931</v>
+        <v>179.6063298638024</v>
       </c>
       <c r="I41" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>330.757409507911</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25715,16 +25715,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>111.2575973603341</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>55.41327277656063</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>139.5473206610679</v>
@@ -25836,7 +25836,7 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S43" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>119.5752140501211</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.88768871159732</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4936277569416</v>
+        <v>372.0956632403419</v>
       </c>
       <c r="H44" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I44" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U44" t="n">
         <v>254.3180969423526</v>
@@ -25927,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>52.82921230206898</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>55.41327277656024</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>58.94334016289027</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>74.61559865920545</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.0647388645961</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.10931561104034</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S46" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>256.3915146240939</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>444341.6958380127</v>
+        <v>444341.6958380126</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>444341.6958380127</v>
+        <v>444341.6958380126</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444341.6958380128</v>
+        <v>444341.6958380127</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>444341.6958380127</v>
+        <v>444341.6958380125</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>444341.6958380126</v>
+        <v>444341.6958380127</v>
       </c>
     </row>
     <row r="11">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388805.8187268447</v>
+        <v>388805.8187268448</v>
       </c>
       <c r="C2" t="n">
         <v>388805.8187268447</v>
       </c>
       <c r="D2" t="n">
-        <v>388805.8187268446</v>
+        <v>388805.8187268447</v>
       </c>
       <c r="E2" t="n">
-        <v>222210.4425883345</v>
+        <v>222210.4425883343</v>
       </c>
       <c r="F2" t="n">
-        <v>222210.4425883344</v>
+        <v>222210.4425883343</v>
       </c>
       <c r="G2" t="n">
         <v>222210.4425883344</v>
       </c>
       <c r="H2" t="n">
-        <v>222210.4425883344</v>
+        <v>222210.4425883343</v>
       </c>
       <c r="I2" t="n">
-        <v>222210.4425883344</v>
+        <v>222210.4425883342</v>
       </c>
       <c r="J2" t="n">
         <v>222210.4425883344</v>
@@ -26349,13 +26349,13 @@
         <v>222210.4425883344</v>
       </c>
       <c r="N2" t="n">
-        <v>222210.4425883344</v>
+        <v>222210.4425883343</v>
       </c>
       <c r="O2" t="n">
         <v>222210.4425883343</v>
       </c>
       <c r="P2" t="n">
-        <v>222210.4425883344</v>
+        <v>222210.4425883343</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>563636.1310597794</v>
+        <v>563636.1310597793</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>18828.94606632271</v>
       </c>
       <c r="G4" t="n">
+        <v>18828.94606632271</v>
+      </c>
+      <c r="H4" t="n">
         <v>18828.9460663227</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>18828.9460663227</v>
+      </c>
+      <c r="J4" t="n">
         <v>18828.94606632271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18828.94606632271</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18828.94606632269</v>
       </c>
       <c r="K4" t="n">
         <v>18828.94606632271</v>
@@ -26459,7 +26459,7 @@
         <v>18828.94606632269</v>
       </c>
       <c r="P4" t="n">
-        <v>18828.94606632271</v>
+        <v>18828.94606632269</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4305.914721187903</v>
+        <v>4297.115035558556</v>
       </c>
       <c r="C6" t="n">
-        <v>4305.914721187844</v>
+        <v>4297.11503555844</v>
       </c>
       <c r="D6" t="n">
-        <v>4305.914721187786</v>
+        <v>4297.115035558498</v>
       </c>
       <c r="E6" t="n">
-        <v>-399285.9716855985</v>
+        <v>-399988.918771805</v>
       </c>
       <c r="F6" t="n">
-        <v>164350.1593741809</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="G6" t="n">
-        <v>164350.1593741809</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="H6" t="n">
-        <v>164350.1593741808</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="I6" t="n">
-        <v>164350.1593741808</v>
+        <v>163647.2122879742</v>
       </c>
       <c r="J6" t="n">
-        <v>164350.1593741808</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="K6" t="n">
-        <v>164350.1593741809</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="L6" t="n">
-        <v>164350.1593741809</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="M6" t="n">
-        <v>52099.05615913461</v>
+        <v>51396.10907292813</v>
       </c>
       <c r="N6" t="n">
-        <v>164350.1593741808</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="O6" t="n">
-        <v>164350.1593741808</v>
+        <v>163647.2122879743</v>
       </c>
       <c r="P6" t="n">
-        <v>164350.1593741808</v>
+        <v>163647.2122879743</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>534.1591604021746</v>
       </c>
       <c r="P3" t="n">
-        <v>534.1591604021745</v>
+        <v>534.1591604021746</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>450.4386093924906</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="F4" t="n">
         <v>450.4386093924906</v>
@@ -26807,13 +26807,13 @@
         <v>450.4386093924906</v>
       </c>
       <c r="H4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="I4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="J4" t="n">
         <v>450.4386093924906</v>
-      </c>
-      <c r="I4" t="n">
-        <v>450.4386093924906</v>
-      </c>
-      <c r="J4" t="n">
-        <v>450.4386093924905</v>
       </c>
       <c r="K4" t="n">
         <v>450.4386093924906</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924906</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I44" t="n">
-        <v>82.78661721167774</v>
+        <v>82.78661721167775</v>
       </c>
       <c r="J44" t="n">
         <v>182.2556423725993</v>
@@ -34374,31 +34374,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L44" t="n">
-        <v>338.8716450458941</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M44" t="n">
-        <v>377.0599986893199</v>
+        <v>377.0599986893194</v>
       </c>
       <c r="N44" t="n">
-        <v>383.161223672205</v>
+        <v>383.1612236722052</v>
       </c>
       <c r="O44" t="n">
-        <v>361.8082783405503</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332994</v>
       </c>
       <c r="Q44" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8899511944245</v>
+        <v>134.8899511944246</v>
       </c>
       <c r="S44" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T44" t="n">
-        <v>9.400127536323692</v>
+        <v>9.400127536323694</v>
       </c>
       <c r="U44" t="n">
         <v>0.1717898807323575</v>
@@ -34444,13 +34444,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I45" t="n">
-        <v>39.55801329393463</v>
+        <v>39.55801329393464</v>
       </c>
       <c r="J45" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K45" t="n">
-        <v>185.5296019672345</v>
+        <v>185.5296019672346</v>
       </c>
       <c r="L45" t="n">
         <v>249.4674456199024</v>
@@ -34462,25 +34462,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O45" t="n">
-        <v>273.3635091918562</v>
+        <v>273.3635091918563</v>
       </c>
       <c r="P45" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q45" t="n">
-        <v>146.6619641919329</v>
+        <v>146.661964191933</v>
       </c>
       <c r="R45" t="n">
-        <v>71.33544410050175</v>
+        <v>71.33544410050176</v>
       </c>
       <c r="S45" t="n">
-        <v>21.34117022927554</v>
+        <v>21.34117022927555</v>
       </c>
       <c r="T45" t="n">
-        <v>4.631059135939606</v>
+        <v>4.631059135939607</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07558856043427001</v>
+        <v>0.07558856043427002</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9632378302334293</v>
+        <v>0.9632378302334296</v>
       </c>
       <c r="H46" t="n">
-        <v>8.564059981529951</v>
+        <v>8.564059981529953</v>
       </c>
       <c r="I46" t="n">
-        <v>28.9671885673835</v>
+        <v>28.96718856738351</v>
       </c>
       <c r="J46" t="n">
-        <v>68.10091459750345</v>
+        <v>68.10091459750346</v>
       </c>
       <c r="K46" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L46" t="n">
-        <v>143.2071952330682</v>
+        <v>143.2071952330683</v>
       </c>
       <c r="M46" t="n">
         <v>150.9919082428638</v>
@@ -34544,22 +34544,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P46" t="n">
-        <v>116.4992372129594</v>
+        <v>116.4992372129595</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.65803322072834</v>
+        <v>80.65803322072837</v>
       </c>
       <c r="R46" t="n">
-        <v>43.310675530314</v>
+        <v>43.31067553031401</v>
       </c>
       <c r="S46" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T46" t="n">
-        <v>4.115652547361015</v>
+        <v>4.115652547361016</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05254024528545984</v>
+        <v>0.05254024528545986</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.01690782797241</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.7758814879579</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K12" t="n">
         <v>129.7038191826192</v>
@@ -35509,10 +35509,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q12" t="n">
-        <v>450.4386093924906</v>
+        <v>442.1921260157483</v>
       </c>
       <c r="R12" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K13" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L13" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M13" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N13" t="n">
-        <v>95.6890126399381</v>
+        <v>271.6804553295326</v>
       </c>
       <c r="O13" t="n">
-        <v>83.16641937447898</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P13" t="n">
         <v>324.2522071620629</v>
@@ -35725,10 +35725,10 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J15" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K15" t="n">
-        <v>129.7038191826192</v>
+        <v>216.7799906988234</v>
       </c>
       <c r="L15" t="n">
         <v>193.3529218090534</v>
@@ -35746,7 +35746,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q15" t="n">
-        <v>423.1752181877765</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R15" t="n">
         <v>101.1935444667946</v>
@@ -35807,13 +35807,13 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K16" t="n">
-        <v>163.7964238971762</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L16" t="n">
-        <v>405.729518748281</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M16" t="n">
-        <v>94.7269657440838</v>
+        <v>380.0302973157742</v>
       </c>
       <c r="N16" t="n">
         <v>431.0771959203275</v>
@@ -35822,10 +35822,10 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P16" t="n">
-        <v>60.71939557305469</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J18" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K18" t="n">
-        <v>129.7038191826192</v>
+        <v>216.7799906988234</v>
       </c>
       <c r="L18" t="n">
         <v>193.3529218090534</v>
@@ -35983,7 +35983,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q18" t="n">
-        <v>442.1921260157488</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R18" t="n">
         <v>101.1935444667946</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K19" t="n">
         <v>59.66035289896251</v>
       </c>
       <c r="L19" t="n">
-        <v>405.729518748281</v>
+        <v>288.9641864046273</v>
       </c>
       <c r="M19" t="n">
-        <v>128.5376229686159</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N19" t="n">
         <v>431.0771959203275</v>
@@ -36059,7 +36059,7 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P19" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q19" t="n">
         <v>19.2985075608028</v>
@@ -36220,7 +36220,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.0455172032984</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R21" t="n">
         <v>101.1935444667946</v>
@@ -36287,19 +36287,19 @@
         <v>405.729518748281</v>
       </c>
       <c r="M22" t="n">
-        <v>94.7269657440838</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N22" t="n">
         <v>95.6890126399381</v>
       </c>
       <c r="O22" t="n">
-        <v>365.9593344077609</v>
+        <v>145.0579310658932</v>
       </c>
       <c r="P22" t="n">
         <v>324.2522071620629</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J24" t="n">
-        <v>173.5006950099334</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K24" t="n">
-        <v>129.7038191826192</v>
+        <v>305.6382901705212</v>
       </c>
       <c r="L24" t="n">
         <v>193.3529218090534</v>
       </c>
       <c r="M24" t="n">
-        <v>450.4386093924906</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N24" t="n">
         <v>245.6283429523684</v>
@@ -36460,7 +36460,7 @@
         <v>89.96934568709423</v>
       </c>
       <c r="R24" t="n">
-        <v>101.1935444667946</v>
+        <v>12.33524499509635</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K25" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L25" t="n">
-        <v>354.6221294665832</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M25" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N25" t="n">
         <v>431.0771959203275</v>
       </c>
       <c r="O25" t="n">
-        <v>398.3317236229277</v>
+        <v>347.7217685364853</v>
       </c>
       <c r="P25" t="n">
-        <v>60.71939557305469</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J27" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K27" t="n">
         <v>129.7038191826192</v>
@@ -36682,7 +36682,7 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M27" t="n">
-        <v>295.1473669477512</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N27" t="n">
         <v>245.6283429523684</v>
@@ -36694,10 +36694,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q27" t="n">
-        <v>450.4386093924905</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R27" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K28" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L28" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M28" t="n">
-        <v>94.7269657440838</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N28" t="n">
-        <v>190.8660781781414</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O28" t="n">
-        <v>398.3317236229277</v>
+        <v>347.2243343412302</v>
       </c>
       <c r="P28" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q28" t="n">
         <v>19.2985075608028</v>
@@ -36834,7 +36834,7 @@
         <v>108.9320510392914</v>
       </c>
       <c r="K29" t="n">
-        <v>184.0175733418909</v>
+        <v>184.0175733418907</v>
       </c>
       <c r="L29" t="n">
         <v>243.3862469830494</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J30" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K30" t="n">
         <v>129.7038191826192</v>
@@ -36922,16 +36922,16 @@
         <v>233.5524586807677</v>
       </c>
       <c r="N30" t="n">
-        <v>363.0245440803887</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O30" t="n">
-        <v>450.4386093924906</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P30" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R30" t="n">
         <v>101.1935444667946</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K31" t="n">
         <v>268.0241848037243</v>
@@ -37001,13 +37001,13 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N31" t="n">
-        <v>95.6890126399381</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O31" t="n">
-        <v>334.6590937216372</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P31" t="n">
-        <v>324.2522071620629</v>
+        <v>309.1066697885414</v>
       </c>
       <c r="Q31" t="n">
         <v>146.8479623141737</v>
@@ -37071,7 +37071,7 @@
         <v>108.9320510392914</v>
       </c>
       <c r="K32" t="n">
-        <v>184.0175733418909</v>
+        <v>184.0175733418907</v>
       </c>
       <c r="L32" t="n">
         <v>243.3862469830494</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.01690782797241</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K33" t="n">
         <v>129.7038191826192</v>
@@ -37156,19 +37156,19 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M33" t="n">
-        <v>450.4386093924906</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N33" t="n">
         <v>245.6283429523684</v>
       </c>
       <c r="O33" t="n">
-        <v>420.7900514525138</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P33" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.96934568709423</v>
+        <v>284.9207245029688</v>
       </c>
       <c r="R33" t="n">
         <v>12.33524499509635</v>
@@ -37229,25 +37229,25 @@
         <v>16.66776891454804</v>
       </c>
       <c r="K34" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L34" t="n">
-        <v>405.729518748281</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M34" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N34" t="n">
-        <v>379.9698066386298</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O34" t="n">
-        <v>398.3317236229277</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P34" t="n">
-        <v>60.71939557305469</v>
+        <v>309.1066697885414</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J36" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K36" t="n">
-        <v>129.7038191826192</v>
+        <v>216.7799906988234</v>
       </c>
       <c r="L36" t="n">
         <v>193.3529218090534</v>
@@ -37405,7 +37405,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q36" t="n">
-        <v>423.1752181877765</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R36" t="n">
         <v>101.1935444667946</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K37" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L37" t="n">
         <v>405.729518748281</v>
@@ -37475,10 +37475,10 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N37" t="n">
-        <v>431.0771959203275</v>
+        <v>424.2053644181146</v>
       </c>
       <c r="O37" t="n">
-        <v>347.2243343412302</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P37" t="n">
         <v>60.71939557305469</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.01690782797241</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>57.180973220974</v>
+        <v>137.7927893159303</v>
       </c>
       <c r="K39" t="n">
         <v>129.7038191826192</v>
       </c>
       <c r="L39" t="n">
-        <v>380.5905145807993</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M39" t="n">
         <v>233.5524586807677</v>
@@ -37636,13 +37636,13 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O39" t="n">
-        <v>450.4386093924906</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P39" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.96934568709423</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="R39" t="n">
         <v>12.33524499509635</v>
@@ -37703,10 +37703,10 @@
         <v>16.66776891454804</v>
       </c>
       <c r="K40" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L40" t="n">
-        <v>354.6221294665832</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M40" t="n">
         <v>443.1778238393217</v>
@@ -37715,13 +37715,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O40" t="n">
-        <v>398.3317236229277</v>
+        <v>328.4616650922119</v>
       </c>
       <c r="P40" t="n">
         <v>60.71939557305469</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J42" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K42" t="n">
         <v>129.7038191826192</v>
@@ -37873,16 +37873,16 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O42" t="n">
-        <v>352.3762740480917</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P42" t="n">
-        <v>450.4386093924905</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R42" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>16.66776891454804</v>
       </c>
       <c r="K43" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L43" t="n">
-        <v>354.6221294665827</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M43" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N43" t="n">
         <v>431.0771959203275</v>
@@ -37958,7 +37958,7 @@
         <v>60.71939557305469</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.2985075608028</v>
+        <v>108.2781444695808</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K44" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L44" t="n">
-        <v>243.3862469830493</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M44" t="n">
-        <v>283.7697742322745</v>
+        <v>283.769774232274</v>
       </c>
       <c r="N44" t="n">
-        <v>290.2489329155857</v>
+        <v>290.2489329155858</v>
       </c>
       <c r="O44" t="n">
-        <v>268.6185027147671</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P44" t="n">
         <v>215.1456315524152</v>
@@ -38040,7 +38040,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R44" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J45" t="n">
-        <v>57.18097322097397</v>
+        <v>118.7758814879574</v>
       </c>
       <c r="K45" t="n">
-        <v>129.7038191826191</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L45" t="n">
-        <v>193.3529218090533</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M45" t="n">
-        <v>233.5524586807676</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N45" t="n">
-        <v>401.4094946365768</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O45" t="n">
-        <v>215.6120301918562</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P45" t="n">
+        <v>165.1386812763461</v>
+      </c>
+      <c r="Q45" t="n">
         <v>450.4386093924905</v>
       </c>
-      <c r="Q45" t="n">
-        <v>89.9693456870942</v>
-      </c>
       <c r="R45" t="n">
-        <v>12.33524499509634</v>
+        <v>12.33524499509635</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K46" t="n">
-        <v>163.7964238971758</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L46" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M46" t="n">
-        <v>94.72696574408377</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N46" t="n">
         <v>431.0771959203275</v>
       </c>
       <c r="O46" t="n">
-        <v>398.3317236229277</v>
+        <v>347.2243343412298</v>
       </c>
       <c r="P46" t="n">
-        <v>60.71939557305466</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.8479623141736</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
